--- a/IdealGasLawVolume.xlsx
+++ b/IdealGasLawVolume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xaos\Desktop\General Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AF9DB-B99B-4580-A86A-54EF04AAB036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B192C6D-93D8-4462-84AA-F76A67BF9B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Volume of Gas (cubic meters)</t>
+    <t>Temperature_Outside_K</t>
   </si>
   <si>
-    <t>Temperature Outside (K)</t>
+    <t>Weight_on_Piston_N</t>
   </si>
   <si>
-    <t>Weight on Piston (N)</t>
+    <t>Ideal_Gas_Constant</t>
   </si>
   <si>
-    <t>Ideal Gas Constant</t>
+    <t>Volume_of_Gas_cubic_meters</t>
   </si>
 </sst>
 </file>
@@ -366,29 +366,29 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
